--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject34.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject34.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.51295067102550884</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.56731882501623221</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.77843747638191996</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -334,16 +334,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.66008061520584582</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.85620831955638188</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="0">
-        <v>0</v>
+        <v>0.60180528284513768</v>
       </c>
       <c r="AB2" s="0">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="BM2" s="0">
-        <v>0</v>
+        <v>0.81008797544691169</v>
       </c>
       <c r="BN2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.85773800948435164</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.94318308348722735</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.95140298824639147</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.87219328746551494</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="AF3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.59661692760096352</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.97157475064734933</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="BC4" s="0">
-        <v>0</v>
+        <v>0.82863920106258226</v>
       </c>
       <c r="BD4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.81227822016702622</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.6775633751352339</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="AT5" s="0">
-        <v>0</v>
+        <v>0.75438524386820061</v>
       </c>
       <c r="AU5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.94059577225398394</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.61711043194349213</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.82707149834508364</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="0">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="BC6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="0">
         <v>0</v>
@@ -1376,25 +1376,25 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.71024427908503629</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.90251529919158058</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0</v>
+        <v>0.59997977402831282</v>
       </c>
       <c r="L7" s="0">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="0">
-        <v>0</v>
+        <v>0.85464342111928659</v>
       </c>
       <c r="W7" s="0">
         <v>0</v>
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="AB7" s="0">
-        <v>0</v>
+        <v>0.87809596028241665</v>
       </c>
       <c r="AC7" s="0">
-        <v>0</v>
+        <v>0.64008925256969851</v>
       </c>
       <c r="AD7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.63003434935965785</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.57021433308659542</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="0">
-        <v>0</v>
+        <v>0.58469688988581359</v>
       </c>
       <c r="AI8" s="0">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="AX8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="0">
         <v>0</v>
@@ -1726,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="BA8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="0">
         <v>0</v>
       </c>
       <c r="BC8" s="0">
-        <v>0</v>
+        <v>0.79897684353392817</v>
       </c>
       <c r="BD8" s="0">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="BP8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.79075219900630711</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.7340334616002876</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.61399347395357728</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="0">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="0">
-        <v>0</v>
+        <v>0.62960834065706373</v>
       </c>
       <c r="BB9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.91611015736542178</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.68451498457412208</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.83787369616884866</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="0">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="0">
         <v>0</v>
@@ -2206,25 +2206,25 @@
         <v>0</v>
       </c>
       <c r="G11" s="0">
-        <v>0</v>
+        <v>0.84335431426673746</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.84516456812807816</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.78108678385852204</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.86876628214255625</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>0</v>
+        <v>0.95064184522342154</v>
       </c>
       <c r="AM11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.73479427990247992</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.71763771023066936</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="0">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="0">
-        <v>0</v>
+        <v>0.91082050302070217</v>
       </c>
       <c r="AK12" s="0">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>0</v>
+        <v>0.93848146082537509</v>
       </c>
       <c r="BA12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.89939500789741533</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.97079350403816012</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.87684467553003287</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.73816405289401599</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="0">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="AV13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.97010106061156109</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.65904961539181639</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.50441222927306795</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="BO14" s="0">
-        <v>0</v>
+        <v>0.6216765521275518</v>
       </c>
       <c r="BP14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.50093418412328683</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.92682069993854199</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.55933824472668581</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.84949606539960998</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="0">
-        <v>0</v>
+        <v>0.55289853044194504</v>
       </c>
       <c r="AG15" s="0">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="AT15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.67589521676283837</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.54790804147032324</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.78879430308949272</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.66836566815680287</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.97640624135201215</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.85648324997055603</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0</v>
+        <v>0.54178407070168189</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.99919270723377696</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="AM17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="0">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="BJ17" s="0">
-        <v>0</v>
+        <v>0.77905617660878712</v>
       </c>
       <c r="BK17" s="0">
         <v>0</v>
@@ -3619,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="BN17" s="0">
-        <v>0</v>
+        <v>0.78413301549097381</v>
       </c>
       <c r="BO17" s="0">
         <v>0</v>
       </c>
       <c r="BP17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3675,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.98633900993852697</v>
       </c>
       <c r="Q18" s="0">
-        <v>0</v>
+        <v>0.8124625174102359</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.66002020419363516</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="0">
-        <v>0</v>
+        <v>0.61330556043044537</v>
       </c>
       <c r="AK18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="0">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="BL18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM18" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.77137373636046014</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.63409908187542074</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.6140200438382728</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.98407997302938488</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4096,16 +4096,16 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.62832311926778828</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.59411447625757563</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.66690132016913972</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="BM20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.94402919794669682</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.65362252486644135</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.71067137840958194</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.79131432091753018</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="0">
-        <v>0</v>
+        <v>0.9781504056856094</v>
       </c>
       <c r="AJ21" s="0">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="AO21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="0">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="BI21" s="0">
-        <v>0</v>
+        <v>0.995079797535243</v>
       </c>
       <c r="BJ21" s="0">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="0">
-        <v>0</v>
+        <v>0.58116988501459554</v>
       </c>
       <c r="H22" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.68934491240258122</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.77813169114275071</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.9987105092955304</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.84493792793640976</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.94949265876018285</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.76961044777185894</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="0">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="0">
         <v>0</v>
@@ -4929,25 +4929,25 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.9340004030940402</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.55601142643291257</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0</v>
+        <v>0.70557545886311113</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.76879658354274449</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
       </c>
       <c r="AB24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="0">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="BN24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO24" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.71874857011493054</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>0.77691204487638799</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.70089874741032432</v>
       </c>
       <c r="AA25" s="0">
-        <v>0</v>
+        <v>0.59236689207687543</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="0">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="0">
         <v>0</v>
@@ -5347,16 +5347,16 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.54418260876246749</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.65571421710875155</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.66603033326119254</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="0">
-        <v>0</v>
+        <v>0.78811044897191063</v>
       </c>
       <c r="BB26" s="0">
         <v>0</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="0">
-        <v>0</v>
+        <v>0.91469048864903979</v>
       </c>
       <c r="C27" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0</v>
+        <v>0.72873224602605935</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.55483308477909432</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.61553705839634154</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.64663468300205895</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="BI27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ27" s="0">
         <v>0</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="0">
-        <v>0</v>
+        <v>0.78583305254642855</v>
       </c>
       <c r="H28" s="0">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="0">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="0">
         <v>0</v>
@@ -5768,16 +5768,16 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.87922906064127315</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.80808158554570841</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.57736106304961954</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5911,10 +5911,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="0">
-        <v>0</v>
+        <v>0.73686632960204901</v>
       </c>
       <c r="H29" s="0">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.8476962575626984</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.62529305592888451</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.65656399460405834</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.7332383303780754</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.98257445075793359</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.7324032496741455</v>
       </c>
       <c r="AF30" s="0">
-        <v>0</v>
+        <v>0.79932097764963883</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="0">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="AX30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY30" s="0">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="BD30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE30" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.67814230493868854</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.63406876251720645</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.96114792428486118</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="0">
-        <v>0</v>
+        <v>0.70030580139753118</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0</v>
+        <v>0.90503029058049567</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.56136374881762996</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.53131965620887112</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="AV32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW32" s="0">
         <v>0</v>
@@ -6810,25 +6810,25 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.87916818515865014</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.64961016324815968</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.53677065308504246</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
       </c>
       <c r="AK33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="0">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="0">
-        <v>0</v>
+        <v>0.506314720390311</v>
       </c>
       <c r="I34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.74622784368888262</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.98129652867029005</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.50626769091373047</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="AW34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="0">
         <v>0</v>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="0">
-        <v>0</v>
+        <v>0.54331174364471591</v>
       </c>
       <c r="V35" s="0">
         <v>0</v>
@@ -7228,25 +7228,25 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.51054389751979612</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.77428685546291232</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
       </c>
       <c r="AM35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN35" s="0">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="BH35" s="0">
-        <v>0</v>
+        <v>0.86099041699256029</v>
       </c>
       <c r="BI35" s="0">
         <v>0</v>
@@ -7365,13 +7365,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="0">
         <v>0</v>
       </c>
       <c r="L36" s="0">
-        <v>0</v>
+        <v>0.77571997446952978</v>
       </c>
       <c r="M36" s="0">
         <v>0</v>
@@ -7389,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="0">
-        <v>0</v>
+        <v>0.6910857498080103</v>
       </c>
       <c r="S36" s="0">
         <v>0</v>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.74619131055318899</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.64745781282158077</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.91101428146140073</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="AT36" s="0">
-        <v>0</v>
+        <v>0.58433479794692644</v>
       </c>
       <c r="AU36" s="0">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="BC36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD36" s="0">
         <v>0</v>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="BG36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH36" s="0">
         <v>0</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="BP36" s="0">
-        <v>0</v>
+        <v>0.77875499489480693</v>
       </c>
     </row>
     <row r="37">
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="0">
         <v>0</v>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="0">
         <v>0</v>
@@ -7640,13 +7640,13 @@
         <v>0</v>
       </c>
       <c r="AG37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="0">
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.50284912434032125</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.67232406103066222</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0</v>
+        <v>0.93799088600322533</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.76891243743825433</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.55093205151933522</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.93013820724350715</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.87858608227682855</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="BH38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI38" s="0">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="BM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN38" s="0">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="0">
         <v>0</v>
@@ -8058,25 +8058,25 @@
         <v>0</v>
       </c>
       <c r="AI39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ39" s="0">
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.74657435672191141</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.78723345995456318</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.70077251712759314</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.93411881220491033</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.50167321881733673</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.79607388646130905</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.85592041331634028</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.65424595217635595</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.70190802974135835</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.85675857172859637</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.76050717490474617</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.93282056321593465</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="AW41" s="0">
-        <v>0</v>
+        <v>0.65075319220484962</v>
       </c>
       <c r="AX41" s="0">
         <v>0</v>
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="AD42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="0">
         <v>0</v>
@@ -8691,25 +8691,25 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.55410527926755959</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.78209121309519014</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.60022102223567186</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.57996777443440828</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
       </c>
       <c r="AT42" s="0">
-        <v>0</v>
+        <v>0.51157475402241004</v>
       </c>
       <c r="AU42" s="0">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="BA42" s="0">
-        <v>0</v>
+        <v>0.96855056491321068</v>
       </c>
       <c r="BB42" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.79732874711252</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.91080804767961354</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.59072745298188778</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.84171442890674453</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="BC43" s="0">
-        <v>0</v>
+        <v>0.99454108088488724</v>
       </c>
       <c r="BD43" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.94697486199727932</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.9143195548519345</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.90614260799800617</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.7476341779693032</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.90440335651761761</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.62140046861035514</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.86883069544116731</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.79369905738972957</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="0">
-        <v>0</v>
+        <v>0.86550479276911685</v>
       </c>
       <c r="F46" s="0">
         <v>0</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="0">
-        <v>0</v>
+        <v>0.9505975303558063</v>
       </c>
       <c r="AK46" s="0">
         <v>0</v>
@@ -9521,25 +9521,25 @@
         <v>0</v>
       </c>
       <c r="AP46" s="0">
-        <v>0</v>
+        <v>0.61451209879867053</v>
       </c>
       <c r="AQ46" s="0">
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.6401076574138026</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.76267582458059757</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.64395905048230573</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.85003344276697135</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.86067322076434616</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.60499326228542083</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.94050609066832946</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="0">
         <v>0</v>
@@ -9903,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="AF48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.67399776886403129</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>0</v>
+        <v>0.6653054287692749</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="BD48" s="0">
-        <v>0</v>
+        <v>0.88261770116508476</v>
       </c>
       <c r="BE48" s="0">
         <v>0</v>
@@ -10005,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="BN48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO48" s="0">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="AH49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="0">
         <v>0</v>
@@ -10136,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="AO49" s="0">
-        <v>0</v>
+        <v>0.63919561223256149</v>
       </c>
       <c r="AP49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.55734809385183359</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0</v>
+        <v>0.74941017511008501</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10243,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="0">
         <v>0</v>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="AD50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="0">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0</v>
+        <v>0.96371323655344932</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.72750356291900697</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="BM50" s="0">
-        <v>0</v>
+        <v>0.66257813700878643</v>
       </c>
       <c r="BN50" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0</v>
+        <v>0.50683190393139632</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10581,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.93841320946741824</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.76098265170202883</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="0">
-        <v>0</v>
+        <v>0.95549117600007105</v>
       </c>
       <c r="M52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.85990655684778849</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.93422690294189259</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.62202553348578182</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10861,10 +10861,10 @@
         <v>0</v>
       </c>
       <c r="H53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="0">
-        <v>0</v>
+        <v>0.91140085600005294</v>
       </c>
       <c r="J53" s="0">
         <v>0</v>
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="0">
-        <v>0</v>
+        <v>0.67300780406624772</v>
       </c>
       <c r="AA53" s="0">
         <v>0</v>
@@ -10963,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="AP53" s="0">
-        <v>0</v>
+        <v>0.92641170507881543</v>
       </c>
       <c r="AQ53" s="0">
         <v>0</v>
@@ -10990,16 +10990,16 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.6524402150614983</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="BP53" s="0">
-        <v>0</v>
+        <v>0.85655977941534933</v>
       </c>
     </row>
     <row r="54">
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.9920648886834682</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.95988510384253534</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.50126760656246705</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="BJ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK54" s="0">
         <v>0</v>
@@ -11261,19 +11261,19 @@
         <v>0</v>
       </c>
       <c r="D55" s="0">
-        <v>0</v>
+        <v>0.87650414060866744</v>
       </c>
       <c r="E55" s="0">
         <v>0</v>
       </c>
       <c r="F55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="0">
         <v>0</v>
       </c>
       <c r="H55" s="0">
-        <v>0</v>
+        <v>0.79058538004078205</v>
       </c>
       <c r="I55" s="0">
         <v>0</v>
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK55" s="0">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="0">
-        <v>0</v>
+        <v>0.52481038806969604</v>
       </c>
       <c r="AR55" s="0">
         <v>0</v>
@@ -11411,19 +11411,19 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.95701529376318573</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
       </c>
       <c r="BF55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG55" s="0">
         <v>0</v>
@@ -11438,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="BK55" s="0">
-        <v>0</v>
+        <v>0.64558398344235091</v>
       </c>
       <c r="BL55" s="0">
         <v>0</v>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="AD56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="0">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="AV56" s="0">
-        <v>0</v>
+        <v>0.87885397748019289</v>
       </c>
       <c r="AW56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.90960830310596097</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.77874571354283295</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.53342774202892973</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11638,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="BI56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ56" s="0">
         <v>0</v>
@@ -11829,16 +11829,16 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.96615368944914393</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.99606756933614882</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="BJ57" s="0">
-        <v>0</v>
+        <v>0.87216306100981433</v>
       </c>
       <c r="BK57" s="0">
         <v>0</v>
@@ -12032,22 +12032,22 @@
         <v>0</v>
       </c>
       <c r="BC58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.82135627896165531</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.99168301046378882</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.7533504603865081</v>
       </c>
       <c r="BH58" s="0">
-        <v>0</v>
+        <v>0.76125823134898973</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12181,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.64621910819284945</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0</v>
+        <v>0.71657040907073721</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.63612804292645808</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12384,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="AI60" s="0">
-        <v>0</v>
+        <v>0.80049196159275027</v>
       </c>
       <c r="AJ60" s="0">
         <v>0</v>
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="AL60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0</v>
+        <v>0.65995071386906412</v>
       </c>
       <c r="BG60" s="0">
-        <v>0</v>
+        <v>0.96965057001233634</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.65986960220444102</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="0">
-        <v>0</v>
+        <v>0.73187456641507143</v>
       </c>
       <c r="V61" s="0">
         <v>0</v>
@@ -12566,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="AA61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="0">
         <v>0</v>
@@ -12653,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="BD61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE61" s="0">
         <v>0</v>
@@ -12662,16 +12662,16 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.64251838548036</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.79164086803453182</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.74032461103432534</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12742,7 +12742,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>0</v>
+        <v>0.61781973330538198</v>
       </c>
       <c r="R62" s="0">
         <v>0</v>
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="BB62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC62" s="0">
         <v>0</v>
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="BE62" s="0">
-        <v>0</v>
+        <v>0.55733169166428642</v>
       </c>
       <c r="BF62" s="0">
         <v>0</v>
@@ -12871,16 +12871,16 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.61356675796268934</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.87919301437052044</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -13062,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="BC63" s="0">
-        <v>0</v>
+        <v>0.65276789732149232</v>
       </c>
       <c r="BD63" s="0">
         <v>0</v>
@@ -13083,22 +13083,22 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.92216323753350249</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.82389120912184644</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
       </c>
       <c r="BO63" s="0">
-        <v>0</v>
+        <v>0.88973807547536521</v>
       </c>
       <c r="BP63" s="0">
         <v>0</v>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="0">
         <v>0</v>
@@ -13292,16 +13292,16 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.9552637174364853</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.5632521304408199</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="0">
-        <v>0</v>
+        <v>0.78601380927743902</v>
       </c>
       <c r="C65" s="0">
         <v>0</v>
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65" s="0">
         <v>0</v>
@@ -13423,7 +13423,7 @@
         <v>0</v>
       </c>
       <c r="AL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65" s="0">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="AX65" s="0">
-        <v>0</v>
+        <v>0.63707704762269657</v>
       </c>
       <c r="AY65" s="0">
         <v>0</v>
@@ -13498,16 +13498,16 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.66473336619952395</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.94854439391284906</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.99143935447944154</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13566,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>0</v>
+        <v>0.52937083115192229</v>
       </c>
       <c r="R66" s="0">
         <v>0</v>
@@ -13587,7 +13587,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="0">
         <v>0</v>
@@ -13659,7 +13659,7 @@
         <v>0</v>
       </c>
       <c r="AV66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.80380823126328682</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.98429654862751348</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.8131754324037973</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.57489865386897965</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13763,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="0">
-        <v>0</v>
+        <v>0.6119215486894316</v>
       </c>
       <c r="O67" s="0">
         <v>0</v>
@@ -13910,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="BK67" s="0">
-        <v>0</v>
+        <v>0.67535256929735166</v>
       </c>
       <c r="BL67" s="0">
         <v>0</v>
@@ -13919,13 +13919,13 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="0">
         <v>0</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="0">
         <v>0</v>
@@ -14035,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="0">
-        <v>0</v>
+        <v>0.51742957254317345</v>
       </c>
       <c r="AK68" s="0">
         <v>0</v>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="BA68" s="0">
-        <v>0</v>
+        <v>0.77448326231696796</v>
       </c>
       <c r="BB68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.94663351959065278</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject34.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject34.xlsx
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.51295067102550884</v>
+        <v>0.66008061520584582</v>
       </c>
       <c r="C1" s="0">
-        <v>0.56731882501623221</v>
+        <v>0.85773800948435164</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -340,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.85620831955638188</v>
+        <v>0.94318308348722735</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.60180528284513768</v>
+        <v>0.91469048864903979</v>
       </c>
       <c r="AB2" s="0">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.59661692760096352</v>
+        <v>0.95140298824639147</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="BC4" s="0">
-        <v>0.82863920106258226</v>
+        <v>0.87650414060866744</v>
       </c>
       <c r="BD4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.81227822016702622</v>
+        <v>0.87219328746551494</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0.6775633751352339</v>
+        <v>0.71024427908503629</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="AT5" s="0">
-        <v>0.75438524386820061</v>
+        <v>0.86550479276911685</v>
       </c>
       <c r="AU5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.94059577225398394</v>
+        <v>0.97157475064734933</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.61711043194349213</v>
+        <v>0.90251529919158058</v>
       </c>
       <c r="H6" s="0">
         <v>0.82707149834508364</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.59997977402831282</v>
+        <v>0.84335431426673746</v>
       </c>
       <c r="L7" s="0">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0.87809596028241665</v>
       </c>
       <c r="AC7" s="0">
-        <v>0.64008925256969851</v>
+        <v>0.73686632960204901</v>
       </c>
       <c r="AD7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.63003434935965785</v>
+        <v>0.82707149834508364</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.57021433308659542</v>
+        <v>0.79075219900630711</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.7340334616002876</v>
+        <v>0.91611015736542178</v>
       </c>
       <c r="K9" s="0">
-        <v>0.61399347395357728</v>
+        <v>0.84516456812807816</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="0">
-        <v>0.62960834065706373</v>
+        <v>0.91140085600005294</v>
       </c>
       <c r="BB9" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.68451498457412208</v>
+        <v>0.78108678385852204</v>
       </c>
       <c r="L10" s="0">
         <v>0.83787369616884866</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0.86876628214255625</v>
+        <v>0.89939500789741533</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.73479427990247992</v>
+        <v>0.83787369616884866</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.71763771023066936</v>
+        <v>0.97079350403816012</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>0.93848146082537509</v>
+        <v>0.95549117600007105</v>
       </c>
       <c r="BA12" s="0">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.87684467553003287</v>
+        <v>0.97010106061156109</v>
       </c>
       <c r="O13" s="0">
         <v>0.73816405289401599</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0.65904961539181639</v>
+        <v>0.92682069993854199</v>
       </c>
       <c r="P14" s="0">
-        <v>0.50441222927306795</v>
+        <v>0.67589521676283837</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.50093418412328683</v>
+        <v>0.73816405289401599</v>
       </c>
       <c r="N15" s="0">
         <v>0.92682069993854199</v>
@@ -3060,7 +3060,7 @@
         <v>0.55933824472668581</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.84949606539960998</v>
+        <v>0.97640624135201215</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="0">
-        <v>0.55289853044194504</v>
+        <v>0.70030580139753118</v>
       </c>
       <c r="AG15" s="0">
         <v>0</v>
@@ -3260,16 +3260,16 @@
         <v>0.67589521676283837</v>
       </c>
       <c r="O16" s="0">
-        <v>0.54790804147032324</v>
+        <v>0.55933824472668581</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.78879430308949272</v>
+        <v>0.85648324997055603</v>
       </c>
       <c r="R16" s="0">
-        <v>0.66836566815680287</v>
+        <v>0.98633900993852697</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.54178407070168189</v>
+        <v>0.8124625174102359</v>
       </c>
       <c r="S17" s="0">
         <v>0.99919270723377696</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="0">
-        <v>0.61330556043044537</v>
+        <v>0.6910857498080103</v>
       </c>
       <c r="AK18" s="0">
         <v>0</v>
@@ -3884,16 +3884,16 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.77137373636046014</v>
+        <v>0.99919270723377696</v>
       </c>
       <c r="R19" s="0">
-        <v>0.63409908187542074</v>
+        <v>0.66002020419363516</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.6140200438382728</v>
+        <v>0.62832311926778828</v>
       </c>
       <c r="U19" s="0">
         <v>0.98407997302938488</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0.59411447625757563</v>
+        <v>0.65362252486644135</v>
       </c>
       <c r="V20" s="0">
-        <v>0.66690132016913972</v>
+        <v>0.68934491240258122</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.94402919794669682</v>
+        <v>0.98407997302938488</v>
       </c>
       <c r="T21" s="0">
         <v>0.65362252486644135</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.71067137840958194</v>
+        <v>0.77813169114275071</v>
       </c>
       <c r="W21" s="0">
-        <v>0.79131432091753018</v>
+        <v>0.84493792793640976</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="0">
-        <v>0.58116988501459554</v>
+        <v>0.85464342111928659</v>
       </c>
       <c r="H22" s="0">
         <v>0</v>
@@ -4929,16 +4929,16 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.9340004030940402</v>
+        <v>0.9987105092955304</v>
       </c>
       <c r="W24" s="0">
-        <v>0.55601142643291257</v>
+        <v>0.94949265876018285</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.70557545886311113</v>
+        <v>0.77691204487638799</v>
       </c>
       <c r="Z24" s="0">
         <v>0.76879658354274449</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.71874857011493054</v>
+        <v>0.76961044777185894</v>
       </c>
       <c r="X25" s="0">
         <v>0.77691204487638799</v>
@@ -5150,7 +5150,7 @@
         <v>0.70089874741032432</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.59236689207687543</v>
+        <v>0.72873224602605935</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.54418260876246749</v>
+        <v>0.76879658354274449</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.65571421710875155</v>
+        <v>0.70089874741032432</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5559,16 +5559,16 @@
         <v>0.72873224602605935</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.55483308477909432</v>
+        <v>0.66603033326119254</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.61553705839634154</v>
+        <v>0.87922906064127315</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.64663468300205895</v>
+        <v>0.8476962575626984</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="0">
-        <v>0.78583305254642855</v>
+        <v>0.87809596028241665</v>
       </c>
       <c r="H28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0.80808158554570841</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.57736106304961954</v>
+        <v>0.7332383303780754</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5977,13 +5977,13 @@
         <v>0.8476962575626984</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.62529305592888451</v>
+        <v>0.80808158554570841</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.65656399460405834</v>
+        <v>0.98257445075793359</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0.7324032496741455</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.79932097764963883</v>
+        <v>0.90503029058049567</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.67814230493868854</v>
+        <v>0.7324032496741455</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0.90503029058049567</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.56136374881762996</v>
+        <v>0.63406876251720645</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.53131965620887112</v>
+        <v>0.74622784368888262</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.87916818515865014</v>
+        <v>0.96114792428486118</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.64961016324815968</v>
+        <v>0.98129652867029005</v>
       </c>
       <c r="AI33" s="0">
         <v>0.53677065308504246</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="0">
-        <v>0.506314720390311</v>
+        <v>0.58469688988581359</v>
       </c>
       <c r="I34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.50626769091373047</v>
+        <v>0.74619131055318899</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="0">
-        <v>0.54331174364471591</v>
+        <v>0.9781504056856094</v>
       </c>
       <c r="V35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.51054389751979612</v>
+        <v>0.53677065308504246</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="0">
-        <v>0.77571997446952978</v>
+        <v>0.91082050302070217</v>
       </c>
       <c r="M36" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0.74619131055318899</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.64745781282158077</v>
+        <v>0.77428685546291232</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="AT36" s="0">
-        <v>0.58433479794692644</v>
+        <v>0.9505975303558063</v>
       </c>
       <c r="AU36" s="0">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.50284912434032125</v>
+        <v>0.55093205151933522</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.67232406103066222</v>
+        <v>0.74657435672191141</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0.93799088600322533</v>
+        <v>0.95064184522342154</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.76891243743825433</v>
+        <v>0.91101428146140073</v>
       </c>
       <c r="AK38" s="0">
         <v>0.55093205151933522</v>
@@ -8067,13 +8067,13 @@
         <v>0.74657435672191141</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.78723345995456318</v>
+        <v>0.93013820724350715</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.70077251712759314</v>
+        <v>0.79607388646130905</v>
       </c>
       <c r="AO39" s="0">
         <v>0.93411881220491033</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.50167321881733673</v>
+        <v>0.87858608227682855</v>
       </c>
       <c r="AM40" s="0">
         <v>0.79607388646130905</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.85592041331634028</v>
+        <v>0.85675857172859637</v>
       </c>
       <c r="AP40" s="0">
         <v>0.65424595217635595</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.70190802974135835</v>
+        <v>0.93411881220491033</v>
       </c>
       <c r="AN41" s="0">
         <v>0.85675857172859637</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.76050717490474617</v>
+        <v>0.78209121309519014</v>
       </c>
       <c r="AQ41" s="0">
         <v>0.93282056321593465</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.55410527926755959</v>
+        <v>0.65424595217635595</v>
       </c>
       <c r="AO42" s="0">
         <v>0.78209121309519014</v>
@@ -8700,16 +8700,16 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.60022102223567186</v>
+        <v>0.91080804767961354</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.57996777443440828</v>
+        <v>0.94697486199727932</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
       </c>
       <c r="AT42" s="0">
-        <v>0.51157475402241004</v>
+        <v>0.61451209879867053</v>
       </c>
       <c r="AU42" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.79732874711252</v>
+        <v>0.93282056321593465</v>
       </c>
       <c r="AP43" s="0">
         <v>0.91080804767961354</v>
@@ -8909,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.59072745298188778</v>
+        <v>0.9143195548519345</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.84171442890674453</v>
+        <v>0.90440335651761761</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0.90440335651761761</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.62140046861035514</v>
+        <v>0.90614260799800617</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0.86883069544116731</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.79369905738972957</v>
+        <v>0.85003344276697135</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9527,16 +9527,16 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.6401076574138026</v>
+        <v>0.7476341779693032</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.76267582458059757</v>
+        <v>0.86883069544116731</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.64395905048230573</v>
+        <v>0.86067322076434616</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.60499326228542083</v>
+        <v>0.67399776886403129</v>
       </c>
       <c r="AW47" s="0">
         <v>0.94050609066832946</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.6653054287692749</v>
+        <v>0.96371323655344932</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10136,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="AO49" s="0">
-        <v>0.63919561223256149</v>
+        <v>0.65075319220484962</v>
       </c>
       <c r="AP49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.55734809385183359</v>
+        <v>0.94050609066832946</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.72750356291900697</v>
+        <v>0.85990655684778849</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.50683190393139632</v>
+        <v>0.74941017511008501</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0.85990655684778849</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.93422690294189259</v>
+        <v>0.93841320946741824</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>0.62202553348578182</v>
+        <v>0.9920648886834682</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="0">
-        <v>0.67300780406624772</v>
+        <v>0.78811044897191063</v>
       </c>
       <c r="AA53" s="0">
         <v>0</v>
@@ -10963,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="AP53" s="0">
-        <v>0.92641170507881543</v>
+        <v>0.96855056491321068</v>
       </c>
       <c r="AQ53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.6524402150614983</v>
+        <v>0.76098265170202883</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0.95988510384253534</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.50126760656246705</v>
+        <v>0.90960830310596097</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="0">
-        <v>0.79058538004078205</v>
+        <v>0.79897684353392817</v>
       </c>
       <c r="I55" s="0">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="0">
-        <v>0.52481038806969604</v>
+        <v>0.99454108088488724</v>
       </c>
       <c r="AR55" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.95701529376318573</v>
+        <v>0.95988510384253534</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11438,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="BK55" s="0">
-        <v>0.64558398344235091</v>
+        <v>0.65276789732149232</v>
       </c>
       <c r="BL55" s="0">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="AV56" s="0">
-        <v>0.87885397748019289</v>
+        <v>0.88261770116508476</v>
       </c>
       <c r="AW56" s="0">
         <v>0</v>
@@ -11626,10 +11626,10 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0.77874571354283295</v>
+        <v>0.96615368944914393</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.53342774202892973</v>
+        <v>0.82135627896165531</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0.82135627896165531</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.99168301046378882</v>
+        <v>0.99606756933614882</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12247,16 +12247,16 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.64621910819284945</v>
+        <v>0.7533504603865081</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.71657040907073721</v>
+        <v>0.96965057001233634</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.63612804292645808</v>
+        <v>0.64251838548036</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12384,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="AI60" s="0">
-        <v>0.80049196159275027</v>
+        <v>0.86099041699256029</v>
       </c>
       <c r="AJ60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.65995071386906412</v>
+        <v>0.76125823134898973</v>
       </c>
       <c r="BG60" s="0">
         <v>0.96965057001233634</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.65986960220444102</v>
+        <v>0.79164086803453182</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="0">
-        <v>0.73187456641507143</v>
+        <v>0.995079797535243</v>
       </c>
       <c r="V61" s="0">
         <v>0</v>
@@ -12742,7 +12742,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>0.61781973330538198</v>
+        <v>0.77905617660878712</v>
       </c>
       <c r="R62" s="0">
         <v>0</v>
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="BE62" s="0">
-        <v>0.55733169166428642</v>
+        <v>0.87216306100981433</v>
       </c>
       <c r="BF62" s="0">
         <v>0</v>
@@ -12874,13 +12874,13 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.61356675796268934</v>
+        <v>0.74032461103432534</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.87919301437052044</v>
+        <v>0.92216323753350249</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0.9552637174364853</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.5632521304408199</v>
+        <v>0.80380823126328682</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="0">
-        <v>0.78601380927743902</v>
+        <v>0.81008797544691169</v>
       </c>
       <c r="C65" s="0">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="AX65" s="0">
-        <v>0.63707704762269657</v>
+        <v>0.66257813700878643</v>
       </c>
       <c r="AY65" s="0">
         <v>0</v>
@@ -13498,10 +13498,10 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0.66473336619952395</v>
+        <v>0.82389120912184644</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.94854439391284906</v>
+        <v>0.9552637174364853</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13566,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>0.52937083115192229</v>
+        <v>0.78413301549097381</v>
       </c>
       <c r="R66" s="0">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0.80380823126328682</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.98429654862751348</v>
+        <v>0.99143935447944154</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13719,12 +13719,12 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.8131754324037973</v>
+        <v>0.94663351959065278</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.57489865386897965</v>
+        <v>0.77843747638191996</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13763,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="0">
-        <v>0.6119215486894316</v>
+        <v>0.6216765521275518</v>
       </c>
       <c r="O67" s="0">
         <v>0</v>
@@ -13910,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="BK67" s="0">
-        <v>0.67535256929735166</v>
+        <v>0.88973807547536521</v>
       </c>
       <c r="BL67" s="0">
         <v>0</v>
@@ -14035,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="0">
-        <v>0.51742957254317345</v>
+        <v>0.77875499489480693</v>
       </c>
       <c r="AK68" s="0">
         <v>0</v>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="BA68" s="0">
-        <v>0.77448326231696796</v>
+        <v>0.85655977941534933</v>
       </c>
       <c r="BB68" s="0">
         <v>0</v>
